--- a/Inputs/Hayah_Insurance/benefits.xlsx
+++ b/Inputs/Hayah_Insurance/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="112">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -104,9 +104,7 @@
     <t xml:space="preserve">Chronic Condition Cover</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full
-*No waiting period applies if evidence of continuity of coverage is provided; otherwise a waiting period of 6 months applies
-</t>
+    <t xml:space="preserve">Chronic medical conditions if declared and approved, will be covered from day 1 with null waiting period up to AED 150,000-Done. Newly established chronic medical conditions during the policy period, will be subject to 6 months waiting period</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-existing Condition Cover</t>
@@ -198,7 +196,7 @@
     <t xml:space="preserve">Vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered as per DHA guidelines</t>
+    <t xml:space="preserve">Covered as per DHA guidelines on reimbursement basis</t>
   </si>
   <si>
     <t xml:space="preserve">Scans &amp; Diagnostic Tests</t>
@@ -228,8 +226,12 @@
     <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
   </si>
   <si>
-    <t xml:space="preserve">OP- Covered in full up to 10% co-pay
+    <t xml:space="preserve">OP- Covered with 10% copay as per DHA antenatal care protocol
 Normal Delivery and C-Section- Covered up to AED 10,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered with 10% copay as per DHA antenatal care protocol
+Normal Delivery and C-Section- Covered up to AED 15,000 with 10% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Maternity Waiting Period</t>
@@ -264,7 +266,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 3,000 with 30% co-pay
+    <t xml:space="preserve">Covered up to AED 3,000 with 20% co-pay
 </t>
   </si>
   <si>
@@ -293,8 +295,8 @@
     <t xml:space="preserve">Wellness &amp; Health Screening</t>
   </si>
   <si>
-    <t xml:space="preserve">DHA benefits only- Diabetic Screening (above 18 years only)
-*Subject to pre-approval</t>
+    <t xml:space="preserve">DHA benefits only- Diabetic Screening (above 18 years only) covered on reimbursement basis 
+</t>
   </si>
   <si>
     <t xml:space="preserve">Alternative Medicines</t>
@@ -324,10 +326,10 @@
     <t xml:space="preserve">Emergency Evacuation</t>
   </si>
   <si>
+    <t xml:space="preserve">Virtual / Tele Doctor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual / Tele Doctor</t>
   </si>
   <si>
     <t xml:space="preserve">Other Services</t>
@@ -487,7 +489,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,12 +498,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -514,6 +522,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -542,7 +557,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -583,7 +598,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -686,13 +713,13 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48.62"/>
@@ -826,26 +853,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="55.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1062,19 +1089,19 @@
       <c r="B18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1085,19 +1112,19 @@
       <c r="B19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1158,27 +1185,27 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>59</v>
+      <c r="G23" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,22 +1213,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,22 +1236,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,22 +1259,22 @@
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1266,22 +1293,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="D28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="E28" s="12" t="s">
         <v>70</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,22 +1316,22 @@
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1323,45 +1350,45 @@
         <v>24</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>79</v>
+      <c r="C32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,22 +1396,22 @@
         <v>21</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,22 +1419,22 @@
         <v>21</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,22 +1442,22 @@
         <v>24</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>88</v>
+      <c r="C35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,27 +1468,27 @@
         <v>89</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>90</v>
+      <c r="B37" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1472,22 +1499,22 @@
         <v>21</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,22 +1522,22 @@
         <v>21</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,7 +1545,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1529,22 +1556,22 @@
         <v>24</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,22 +1579,22 @@
         <v>24</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="D42" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,30 +1602,30 @@
         <v>24</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>98</v>
+      <c r="B44" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1608,178 +1635,178 @@
       <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>99</v>
+      <c r="B45" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="15" t="s">
+      <c r="B46" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>102</v>
+      <c r="C46" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>103</v>
+      <c r="B47" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>105</v>
+      <c r="B48" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="D49" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>108</v>
+      <c r="B50" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>109</v>
+      <c r="B51" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>110</v>
+      <c r="B52" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
